--- a/docs/CS180 5J's JBox Design Document.xlsx
+++ b/docs/CS180 5J's JBox Design Document.xlsx
@@ -167,7 +167,33 @@
 1. Other Users can enter the room using the code</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B7">
+    <comment authorId="0" ref="D8">
+      <text>
+        <t xml:space="preserve">Acceptance Criteria:
+1. All users are able to search for songs using the Spotify AP</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D9">
+      <text>
+        <t xml:space="preserve">Acceptance Criteria:
+1. Both Users and Host can add songs to the song queue</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D10">
+      <text>
+        <t xml:space="preserve">Acceptance Criteria:
+1. Host is able to add, remove, pause, play, and skip songs in the queue
+2. Other Users are not able to remove, pause, play, and skip songs in the queue</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D11">
+      <text>
+        <t xml:space="preserve">Acceptance Criteria:
+1) New Front end is used and fucntional
+2)looks cohesive</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D12">
       <text>
         <t xml:space="preserve">Accepting criteria:
 1. UI displays the Song status (playing paused etc) for all users
@@ -175,37 +201,42 @@
 3. Player controls of play, pause, skip is hidden from users and only Host can see.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B8">
+    <comment authorId="0" ref="A14">
+      <text>
+        <t xml:space="preserve">Accepting criteria:
+1. UI displays the Song status (playing paused etc) for all users
+2. UI displays list of next songs in the queue for all users
+3. Player controls of play, pause, skip is hidden from users and only Host can see.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A15">
+      <text>
+        <t xml:space="preserve">Acceptance Criteria:
+1) Host and uses should be able to see number of people currently in the room</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A16">
+      <text>
+        <t xml:space="preserve">Acceptance criteria:
+1. Users are able to vote to have a song repeated
+2. Host is able to repeat songs with impunity</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A17">
+      <text>
+        <t xml:space="preserve">Accepting criteria
+1. Host has a button that allows or forbid duplicate songs in the queue
+2. When the button is pressed duplicates are no longer added to the queue
+3. When it is not vice versa</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A18">
       <text>
         <t xml:space="preserve">Accepting Criteria:
-1. The number of users in the room are displayed for all users to see
-2. It is updated when someone joins or leaves</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B9">
-      <text>
-        <t xml:space="preserve">Acceptance Criteria:
-1. All users are able to search for songs using the Spotify AP</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B10">
-      <text>
-        <t xml:space="preserve">Acceptance Criteria:
-1. Both Users and Host can add songs to the song queue</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B11">
-      <text>
-        <t xml:space="preserve">Acceptance Criteria:
-1. Host is able to add, remove, pause, play, and skip songs in the queue
-2. Other Users are not able to remove, pause, play, and skip songs in the queue</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B12">
-      <text>
-        <t xml:space="preserve">Acceptance Criteria:
-1) New Front end is used and fucntional
-2)looks cohesive</t>
+1. Users are able to vote to remove any visible songs in the queue
+2. If a song gains the majority of the room the song is removed from the queue
+3. All users are able to see which songs are being voted on and the number of votes it has
+3. Same for skipping current song</t>
       </text>
     </comment>
   </commentList>
@@ -251,17 +282,60 @@
 1. Other Users can enter the room using the code</t>
       </text>
     </comment>
+    <comment authorId="0" ref="C8">
+      <text>
+        <t xml:space="preserve">Acceptance Criteria:
+1. All users are able to search for songs using the Spotify AP</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C9">
+      <text>
+        <t xml:space="preserve">Acceptance Criteria:
+1. Both Users and Host can add songs to the song queue</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C10">
+      <text>
+        <t xml:space="preserve">Acceptance Criteria:
+1. Host is able to add, remove, pause, play, and skip songs in the queue
+2. Other Users are not able to remove, pause, play, and skip songs in the queue</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C11">
+      <text>
+        <t xml:space="preserve">Acceptance Criteria:
+1) New Front end is used and fucntional
+2)looks cohesive</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C12">
+      <text>
+        <t xml:space="preserve">Accepting criteria:
+1. UI displays the Song status (playing paused etc) for all users
+2. UI displays list of next songs in the queue for all users
+3. Player controls of play, pause, skip is hidden from users and only Host can see.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>To Do (Sprint Backlog)</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>Last Update</t>
+  </si>
+  <si>
+    <t>Story Name</t>
+  </si>
+  <si>
+    <t>Story (small features)</t>
   </si>
   <si>
     <t>In Progress</t>
@@ -273,43 +347,79 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Story Name</t>
-  </si>
-  <si>
-    <t>Story (small features)</t>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Jae Hyun Yim, Justin Yoo, Jang-Shing Lin, Jiawei Chen, Justin Li</t>
   </si>
   <si>
     <t>Task 1: Create basic interface for the main page, with CreateRoom and JoinRoom button. (Enoch)</t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>jyim008@ucr.edu, jyoo030@ucr.edu, jchen313@ucr.edu, lli109@ucr.edu, jlin065@ucr.edu</t>
+  </si>
+  <si>
+    <t>Task 2: CreateRoom button creates a new room page and displays song status (Justin Li, Jiawei Chen)</t>
+  </si>
+  <si>
+    <t>Task 3: The new room page is then connected to spotify account API. (Jae)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Task 4: Generate unique code for room access (Justin Y)</t>
+  </si>
+  <si>
+    <t>Task 5: Users can access the room page with the unique code. (Justin Yoo)</t>
+  </si>
+  <si>
+    <t>Task 6: a host or user is able to be able to search for songs using the Spotify API. (Justin yoo)</t>
+  </si>
+  <si>
+    <t>Task 7: a host or user is able to add songs to the queue. (Jae)</t>
+  </si>
+  <si>
     <t>Story Points</t>
   </si>
   <si>
+    <t>Task 8: a host is be able add or remove songs from the queue, and play and skip. (Jae)</t>
+  </si>
+  <si>
     <t>Priority</t>
   </si>
   <si>
     <t>Comments</t>
   </si>
   <si>
+    <t>Spotify website version (Modified version)</t>
+  </si>
+  <si>
     <t>Host rooms</t>
   </si>
   <si>
-    <t>Task 2: CreateRoom button creates a new room page and displays song status (Justin Li, Jiawei Chen)</t>
-  </si>
-  <si>
-    <t>Task 3: The new room page is then connected to spotify account API. (Jae)</t>
-  </si>
-  <si>
-    <t>Task 4: Generate unique code for room access (Justin Y)</t>
-  </si>
-  <si>
-    <t>Task 5: Users can access the room page with the unique code. (Justin Yoo)</t>
+    <t>Task 9: Reconcile React code with ejs/bootstrap (Enoch, Jiawei, Justin Li)</t>
+  </si>
+  <si>
+    <t>Task 10: a user should be able to see current song playing, next songs, and the player. (Backend)</t>
   </si>
   <si>
     <t>As a user I want to create a room with a unique room ID that give to other users so they can join my room. I become the host.</t>
   </si>
   <si>
-    <t>Task 6: a user should be able to see current song playing, next songs, and the player. (Jiawei)</t>
+    <t>Task 11: a user should be able to see current song playing, next songs, and the player. (Frontend) (Jiawei)</t>
+  </si>
+  <si>
+    <t>Task 12: a host or user should be able to see number of users currently in the room(Justin Li)</t>
+  </si>
+  <si>
+    <t>Tabs</t>
+  </si>
+  <si>
+    <t>Task 13: As a user I should be able to repeat songs.</t>
   </si>
   <si>
     <t>Join rooms</t>
@@ -318,10 +428,7 @@
     <t>I want to be able to use a unique room ID to join another users room.</t>
   </si>
   <si>
-    <t>Task 7: a host or user should be able to see number of users currently in the room(Justin Li)</t>
-  </si>
-  <si>
-    <t>Task 8: a host or user is able to be able to search for songs using the Spotify API. (Justin yoo)</t>
+    <t>Notes</t>
   </si>
   <si>
     <t>Add to queue</t>
@@ -330,43 +437,10 @@
     <t>As a host or user I want to be able to add songs to the queue.</t>
   </si>
   <si>
-    <t>Last Update</t>
-  </si>
-  <si>
-    <t>Task 9: a host or user is able to add songs to the queue. (Jae)</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>Task 10: a host is be able add or remove songs from the queue, and play and skip. (Jae)</t>
-  </si>
-  <si>
-    <t>Task 11: Connect React frontend to backend and unify current frontend. (Enoch)</t>
-  </si>
-  <si>
-    <t>Task 12:</t>
-  </si>
-  <si>
-    <t>Task 13:</t>
-  </si>
-  <si>
-    <t>Task 14:</t>
-  </si>
-  <si>
-    <t>Task 15:</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Jae Hyun Yim, Justin Yoo, Jang-Shing Lin, Jiawei Chen, Justin Li</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>jyim008@ucr.edu, jyoo030@ucr.edu, jchen313@ucr.edu, lli109@ucr.edu, jlin065@ucr.edu</t>
+    <t>"Product Backlog"</t>
+  </si>
+  <si>
+    <t>Should be initialized with the user stories and their estimated efforts (i.e., story points)</t>
   </si>
   <si>
     <t>Host controls</t>
@@ -375,7 +449,10 @@
     <t>As a host, I want to be able add or remove songs from the queue, and play and skip.</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>Depending on the amount of story points, some stories may need to be split into smaller stories</t>
+  </si>
+  <si>
+    <t>Add "Acceptance Criteria" to each user story by "insert note" to a spreadsheet cell (right click the cell)</t>
   </si>
   <si>
     <t>Search Songs</t>
@@ -384,7 +461,13 @@
     <t>As a host or user I want to be able to be able to search for songs using the Spotify API.</t>
   </si>
   <si>
-    <t>Spotify website version (Modified version)</t>
+    <t>Task 14: As a host I should be able to decide if duplicates are added to the queue.</t>
+  </si>
+  <si>
+    <t>"Acceptance Criteria" define what it means by "Done"</t>
+  </si>
+  <si>
+    <t>Task 15: As a user I should be able to vote on whether to remove/skip the current and next songs.</t>
   </si>
   <si>
     <t>Spotify API</t>
@@ -394,7 +477,7 @@
 Spotify Premium Account</t>
   </si>
   <si>
-    <t>Tabs</t>
+    <t>"Task Board"</t>
   </si>
   <si>
     <t>Close rooms</t>
@@ -404,21 +487,57 @@
  Spotify account and kick out all the other users.</t>
   </si>
   <si>
-    <t>Notes</t>
+    <t>"To Do" is initialized with tasks defined during the Sprint Planning Meeting (i.e., sprint backlog)</t>
+  </si>
+  <si>
+    <t>Tasks are expected to have similar sizes, each with a time cost of roughly 3-4 hours</t>
+  </si>
+  <si>
+    <t>Add "Details" and "Acceptance Criteria" to a task by "insert note" to a spreadsheet cell (right click the cell)</t>
+  </si>
+  <si>
+    <t>Minimize task assignments at the Sprint Planning Meeting</t>
+  </si>
+  <si>
+    <t>During a sprint, members who become available can pull tasks from the "To Do" list by moving them to "In Progress" and attaching his/her name</t>
+  </si>
+  <si>
+    <t>Inform your teammates know before you pull a task from "To Do" list</t>
+  </si>
+  <si>
+    <t>"To Verify" should be pulled by a different team member; This is a good time to perform code review and unit testing</t>
   </si>
   <si>
     <t>Song status</t>
   </si>
   <si>
+    <t>A task in "Done" list should have its verifier's name appended</t>
+  </si>
+  <si>
+    <t>"Archives"</t>
+  </si>
+  <si>
+    <t>At the end of a Sprint, finished tasks are moved to "Archives"; Unfinished tasks are moved to the next Sprint Planning Meeting</t>
+  </si>
+  <si>
+    <t>"Burndown Chart"</t>
+  </si>
+  <si>
+    <t>At the end of a Sprint, update the "Burndown Chart"</t>
+  </si>
+  <si>
     <t>As a user I should be able to see current song playing, next songs, and the player.</t>
   </si>
   <si>
-    <t>"Product Backlog"</t>
+    <t>next</t>
   </si>
   <si>
     <t>Repeat</t>
   </si>
   <si>
+    <t>if "Story Points (Remaining)" is above the "Ideal", it would be an indicator for slow progress</t>
+  </si>
+  <si>
     <t>As a user I should be able to repeat songs.</t>
   </si>
   <si>
@@ -432,9 +551,6 @@
   </si>
   <si>
     <t>As a user I should be able to vote on whether to remove/skip the current and next songs.</t>
-  </si>
-  <si>
-    <t>Should be initialized with the user stories and their estimated efforts (i.e., story points)</t>
   </si>
   <si>
     <t>Number of 
@@ -444,16 +560,7 @@
     <t>As a host or user I should be able to see number of users currently in the room</t>
   </si>
   <si>
-    <t>Depending on the amount of story points, some stories may need to be split into smaller stories</t>
-  </si>
-  <si>
-    <t>Add "Acceptance Criteria" to each user story by "insert note" to a spreadsheet cell (right click the cell)</t>
-  </si>
-  <si>
     <t>Users Leaving</t>
-  </si>
-  <si>
-    <t>"Acceptance Criteria" define what it means by "Done"</t>
   </si>
   <si>
     <r>
@@ -473,48 +580,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>"Task Board"</t>
-  </si>
-  <si>
-    <t>"To Do" is initialized with tasks defined during the Sprint Planning Meeting (i.e., sprint backlog)</t>
-  </si>
-  <si>
-    <t>Tasks are expected to have similar sizes, each with a time cost of roughly 3-4 hours</t>
-  </si>
-  <si>
-    <t>Add "Details" and "Acceptance Criteria" to a task by "insert note" to a spreadsheet cell (right click the cell)</t>
-  </si>
-  <si>
-    <t>Minimize task assignments at the Sprint Planning Meeting</t>
-  </si>
-  <si>
-    <t>During a sprint, members who become available can pull tasks from the "To Do" list by moving them to "In Progress" and attaching his/her name</t>
-  </si>
-  <si>
-    <t>Inform your teammates know before you pull a task from "To Do" list</t>
-  </si>
-  <si>
-    <t>"To Verify" should be pulled by a different team member; This is a good time to perform code review and unit testing</t>
-  </si>
-  <si>
-    <t>A task in "Done" list should have its verifier's name appended</t>
-  </si>
-  <si>
-    <t>"Archives"</t>
-  </si>
-  <si>
-    <t>At the end of a Sprint, finished tasks are moved to "Archives"; Unfinished tasks are moved to the next Sprint Planning Meeting</t>
-  </si>
-  <si>
-    <t>"Burndown Chart"</t>
-  </si>
-  <si>
-    <t>At the end of a Sprint, update the "Burndown Chart"</t>
-  </si>
-  <si>
-    <t>if "Story Points (Remaining)" is above the "Ideal", it would be an indicator for slow progress</t>
-  </si>
-  <si>
     <t>Sprint ID</t>
   </si>
   <si>
@@ -540,6 +605,9 @@
   </si>
   <si>
     <t>Ideal</t>
+  </si>
+  <si>
+    <t>Jae</t>
   </si>
 </sst>
 </file>
@@ -549,7 +617,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -560,11 +628,21 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font/>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF24292E"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -572,23 +650,25 @@
       <color rgb="FF24292E"/>
       <name val="-apple-system"/>
     </font>
-    <font/>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
     <font>
       <b/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <color rgb="FF000000"/>
+      <color rgb="FF38761D"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF38761D"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF24292E"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -603,14 +683,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFEFEFEF"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -671,123 +757,132 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,153 +926,153 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4">
+        <v>43390.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="14">
-        <v>43390.0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="12" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="18" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="20" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="21"/>
+      <c r="B8" s="23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="26" t="s">
+    <row r="9">
+      <c r="A9" s="21"/>
+      <c r="B9" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="25"/>
+      <c r="B10" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="25"/>
+      <c r="B11" s="24"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B12" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="25"/>
+      <c r="B13" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="25"/>
+      <c r="B14" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="25"/>
+      <c r="B15" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="25"/>
+      <c r="B16" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28" t="s">
+    <row r="17">
+      <c r="A17" s="25"/>
+      <c r="B17" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="25"/>
+      <c r="B18" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="21"/>
+      <c r="B19" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30" t="s">
+    <row r="20">
+      <c r="A20" s="21"/>
+      <c r="B20" s="24"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="29"/>
-      <c r="B11" s="28"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="29"/>
-      <c r="B13" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="29"/>
-      <c r="B14" s="28" t="s">
+    <row r="22">
+      <c r="A22" s="29"/>
+      <c r="B22" s="24"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="33"/>
+      <c r="B24" s="35" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="29"/>
-      <c r="B17" s="28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="29"/>
-      <c r="B18" s="28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="26"/>
-      <c r="B19" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="26"/>
-      <c r="B20" s="28"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="32"/>
-      <c r="B22" s="28"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1002,283 +1097,291 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6">
+      <c r="A2" s="11">
         <v>1.0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="B2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="11">
         <v>3.0</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="11">
         <v>1.0</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>4</v>
+      <c r="F2" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6">
+      <c r="A3" s="11">
         <v>2.0</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="B3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="11">
         <v>3.0</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="11">
         <v>5.0</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>4</v>
+      <c r="F3" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="11">
         <v>3.0</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="B4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="11">
         <v>3.0</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="11">
         <v>9.0</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>26</v>
+      <c r="F4" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="16">
+      <c r="A5" s="22">
         <v>4.0</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="B5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="11">
         <v>4.0</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="11">
         <v>10.0</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>26</v>
+      <c r="F5" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="11">
         <v>5.0</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="B6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="26">
         <v>4.0</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="11">
         <v>8.0</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>26</v>
+      <c r="F6" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" ht="28.5" customHeight="1">
-      <c r="A7" s="16">
+      <c r="A7" s="22">
         <v>6.0</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="21">
+      <c r="B7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="28">
         <v>8.0</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="11">
         <v>2.0</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>4</v>
+      <c r="F7" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" ht="27.0" customHeight="1">
-      <c r="A8" s="6">
+      <c r="A8" s="11">
         <v>7.0</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="B8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="11">
         <v>3.0</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="11">
         <v>3.0</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>4</v>
+      <c r="F8" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="16">
+      <c r="A9" s="22">
         <v>8.0</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="B9" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="11">
         <v>3.0</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="32">
         <v>6.0</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>26</v>
+      <c r="F9" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="11">
         <v>9.0</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="25">
+      <c r="B10" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="32">
         <v>2.0</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="11">
         <v>13.0</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="25">
+      <c r="A11" s="32">
         <v>10.0</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="25">
+      <c r="B11" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="32">
         <v>2.0</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="32">
         <v>12.0</v>
       </c>
+      <c r="F11" s="7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="25">
+      <c r="A12" s="32">
         <v>11.0</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="25">
+      <c r="B12" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="32">
         <v>3.0</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="32">
         <v>11.0</v>
       </c>
+      <c r="F12" s="7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="25">
+      <c r="A13" s="32">
         <v>12.0</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="25">
+      <c r="B13" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="32">
         <v>2.0</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="32">
         <v>7.0</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>26</v>
+      <c r="F13" s="12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="25">
+      <c r="A14" s="32">
         <v>13.0</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="25">
+      <c r="B14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="32">
         <v>2.0</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="32">
         <v>4.0</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>4</v>
+      <c r="F14" s="12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="33">
+      <c r="B15" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="37">
         <f>SUM(D2:D14)</f>
         <v>42</v>
       </c>
@@ -1302,114 +1405,109 @@
     <col customWidth="1" min="1" max="1" width="47.43"/>
     <col customWidth="1" min="2" max="2" width="86.43"/>
     <col customWidth="1" min="3" max="3" width="59.14"/>
-    <col customWidth="1" min="4" max="4" width="57.71"/>
+    <col customWidth="1" min="4" max="4" width="87.14"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="C2" s="3"/>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
+      <c r="C2" s="5"/>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="C3" s="3"/>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
+      <c r="C3" s="5"/>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="3"/>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="3"/>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
+      <c r="C5" s="5"/>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="3"/>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="9" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="7"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="7"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
     </row>
     <row r="11">
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="7"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="13" t="s">
+    <row r="14">
+      <c r="A14" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="13" t="s">
+    <row r="15">
+      <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="20" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="20" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1429,63 +1527,106 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="18.14"/>
-    <col customWidth="1" min="3" max="3" width="34.57"/>
+    <col customWidth="1" min="3" max="3" width="92.14"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6">
+      <c r="A2" s="11">
         <v>1.0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6">
+      <c r="A3" s="11">
         <v>1.0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
+      <c r="B3" s="5"/>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="11">
         <v>1.0</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
+      <c r="B4" s="5"/>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="25">
+      <c r="A5" s="32">
         <v>1.0</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="25">
+      <c r="A6" s="32">
         <v>1.0</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1512,134 +1653,136 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="38" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="37">
+      <c r="A2" s="39">
         <v>0.0</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="40">
         <v>42.0</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="40">
         <v>0.0</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="40">
         <v>0.0</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="40">
         <v>42.0</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="40">
         <v>42.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="37">
+      <c r="A3" s="39">
         <v>1.0</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="40">
         <v>42.0</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="40">
         <v>19.0</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="40">
         <v>19.0</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="40">
         <v>23.0</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="40">
         <v>23.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="37">
+      <c r="A4" s="39">
         <v>2.0</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="B4" s="40">
+        <v>42.0</v>
+      </c>
+      <c r="C4" s="40">
+        <v>11.0</v>
+      </c>
+      <c r="D4" s="40">
+        <v>30.0</v>
+      </c>
+      <c r="E4" s="40">
+        <v>12.0</v>
+      </c>
+      <c r="F4" s="40">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="37">
+      <c r="A5" s="39">
         <v>3.0</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="40">
+        <v>42.0</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="6">
-      <c r="A6" s="37">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
     </row>
     <row r="7">
-      <c r="A7" s="37">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
     </row>
     <row r="8">
-      <c r="A8" s="37">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="37"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="39"/>
     </row>
     <row r="9">
-      <c r="A9" s="37">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="37"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10">
-      <c r="A10" s="37">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="37"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="39"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/docs/CS180 5J's JBox Design Document.xlsx
+++ b/docs/CS180 5J's JBox Design Document.xlsx
@@ -201,7 +201,7 @@
 3. Player controls of play, pause, skip is hidden from users and only Host can see.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A14">
+    <comment authorId="0" ref="B14">
       <text>
         <t xml:space="preserve">Accepting criteria:
 1. UI displays the Song status (playing paused etc) for all users
@@ -209,20 +209,20 @@
 3. Player controls of play, pause, skip is hidden from users and only Host can see.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A15">
+    <comment authorId="0" ref="B15">
       <text>
         <t xml:space="preserve">Acceptance Criteria:
 1) Host and uses should be able to see number of people currently in the room</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A16">
+    <comment authorId="0" ref="B16">
       <text>
         <t xml:space="preserve">Acceptance criteria:
 1. Users are able to vote to have a song repeated
 2. Host is able to repeat songs with impunity</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A17">
+    <comment authorId="0" ref="B17">
       <text>
         <t xml:space="preserve">Accepting criteria
 1. Host has a button that allows or forbid duplicate songs in the queue
@@ -230,7 +230,7 @@
 3. When it is not vice versa</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A18">
+    <comment authorId="0" ref="B18">
       <text>
         <t xml:space="preserve">Accepting Criteria:
 1. Users are able to vote to remove any visible songs in the queue
@@ -347,13 +347,34 @@
     <t>Done</t>
   </si>
   <si>
+    <t>Story Points</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Task 1: Create basic interface for the main page, with CreateRoom and JoinRoom button. (Enoch)</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
     <t>Jae Hyun Yim, Justin Yoo, Jang-Shing Lin, Jiawei Chen, Justin Li</t>
   </si>
   <si>
-    <t>Task 1: Create basic interface for the main page, with CreateRoom and JoinRoom button. (Enoch)</t>
+    <t>Task 2: CreateRoom button creates a new room page and displays song status (Justin Li, Jiawei Chen)</t>
+  </si>
+  <si>
+    <t>Task 3: The new room page is then connected to spotify account API. (Jae)</t>
+  </si>
+  <si>
+    <t>Task 4: Generate unique code for room access (Justin Y)</t>
+  </si>
+  <si>
+    <t>Task 5: Users can access the room page with the unique code. (Justin Yoo)</t>
   </si>
   <si>
     <t>Email</t>
@@ -362,73 +383,70 @@
     <t>jyim008@ucr.edu, jyoo030@ucr.edu, jchen313@ucr.edu, lli109@ucr.edu, jlin065@ucr.edu</t>
   </si>
   <si>
-    <t>Task 2: CreateRoom button creates a new room page and displays song status (Justin Li, Jiawei Chen)</t>
-  </si>
-  <si>
-    <t>Task 3: The new room page is then connected to spotify account API. (Jae)</t>
+    <t>Task 6: a host or user is able to be able to search for songs using the Spotify API. (Justin yoo)</t>
+  </si>
+  <si>
+    <t>Host rooms</t>
+  </si>
+  <si>
+    <t>Task 7: a host or user is able to add songs to the queue. (Jae)</t>
+  </si>
+  <si>
+    <t>Task 8: a host is be able add or remove songs from the queue, and play and skip. (Jae)</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Task 4: Generate unique code for room access (Justin Y)</t>
-  </si>
-  <si>
-    <t>Task 5: Users can access the room page with the unique code. (Justin Yoo)</t>
-  </si>
-  <si>
-    <t>Task 6: a host or user is able to be able to search for songs using the Spotify API. (Justin yoo)</t>
-  </si>
-  <si>
-    <t>Task 7: a host or user is able to add songs to the queue. (Jae)</t>
-  </si>
-  <si>
-    <t>Story Points</t>
-  </si>
-  <si>
-    <t>Task 8: a host is be able add or remove songs from the queue, and play and skip. (Jae)</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Comments</t>
+    <t>Task 9: Reconcile React code with ejs/bootstrap (Enoch, Jiawei, Justin Li)</t>
   </si>
   <si>
     <t>Spotify website version (Modified version)</t>
   </si>
   <si>
-    <t>Host rooms</t>
-  </si>
-  <si>
-    <t>Task 9: Reconcile React code with ejs/bootstrap (Enoch, Jiawei, Justin Li)</t>
-  </si>
-  <si>
     <t>Task 10: a user should be able to see current song playing, next songs, and the player. (Backend)</t>
   </si>
   <si>
+    <t>Tabs</t>
+  </si>
+  <si>
     <t>As a user I want to create a room with a unique room ID that give to other users so they can join my room. I become the host.</t>
   </si>
   <si>
-    <t>Task 11: a user should be able to see current song playing, next songs, and the player. (Frontend) (Jiawei)</t>
-  </si>
-  <si>
-    <t>Task 12: a host or user should be able to see number of users currently in the room(Justin Li)</t>
-  </si>
-  <si>
-    <t>Tabs</t>
-  </si>
-  <si>
-    <t>Task 13: As a user I should be able to repeat songs.</t>
+    <t>Task 11: a user should be able to see current song playing, next songs, and the player. (Frontend) (Jiawei, Enoch)</t>
+  </si>
+  <si>
+    <t>Task 12: a host or user should be able to see number of users currently in the room(Justin Li, Enoch)</t>
   </si>
   <si>
     <t>Join rooms</t>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Task 13: As a user I should be able to repeat songs. (Justin Li, Jae)</t>
+  </si>
+  <si>
     <t>I want to be able to use a unique room ID to join another users room.</t>
   </si>
   <si>
-    <t>Notes</t>
+    <t>"Product Backlog"</t>
+  </si>
+  <si>
+    <t>Task 14: As a host I should be able to decide if duplicates are added to the queue. (Justin Li, Jae)</t>
+  </si>
+  <si>
+    <t>Task 15: As a user I should be able to vote on whether to remove/skip the current and next songs. (Justin Yoo, Jiawei)</t>
+  </si>
+  <si>
+    <t>Should be initialized with the user stories and their estimated efforts (i.e., story points)</t>
+  </si>
+  <si>
+    <t>Depending on the amount of story points, some stories may need to be split into smaller stories</t>
+  </si>
+  <si>
+    <t>Add "Acceptance Criteria" to each user story by "insert note" to a spreadsheet cell (right click the cell)</t>
   </si>
   <si>
     <t>Add to queue</t>
@@ -437,10 +455,7 @@
     <t>As a host or user I want to be able to add songs to the queue.</t>
   </si>
   <si>
-    <t>"Product Backlog"</t>
-  </si>
-  <si>
-    <t>Should be initialized with the user stories and their estimated efforts (i.e., story points)</t>
+    <t>"Acceptance Criteria" define what it means by "Done"</t>
   </si>
   <si>
     <t>Host controls</t>
@@ -449,35 +464,56 @@
     <t>As a host, I want to be able add or remove songs from the queue, and play and skip.</t>
   </si>
   <si>
-    <t>Depending on the amount of story points, some stories may need to be split into smaller stories</t>
-  </si>
-  <si>
-    <t>Add "Acceptance Criteria" to each user story by "insert note" to a spreadsheet cell (right click the cell)</t>
-  </si>
-  <si>
     <t>Search Songs</t>
   </si>
   <si>
     <t>As a host or user I want to be able to be able to search for songs using the Spotify API.</t>
   </si>
   <si>
-    <t>Task 14: As a host I should be able to decide if duplicates are added to the queue.</t>
-  </si>
-  <si>
-    <t>"Acceptance Criteria" define what it means by "Done"</t>
-  </si>
-  <si>
-    <t>Task 15: As a user I should be able to vote on whether to remove/skip the current and next songs.</t>
+    <t>"Task Board"</t>
+  </si>
+  <si>
+    <t>"To Do" is initialized with tasks defined during the Sprint Planning Meeting (i.e., sprint backlog)</t>
+  </si>
+  <si>
+    <t>Tasks are expected to have similar sizes, each with a time cost of roughly 3-4 hours</t>
+  </si>
+  <si>
+    <t>Add "Details" and "Acceptance Criteria" to a task by "insert note" to a spreadsheet cell (right click the cell)</t>
+  </si>
+  <si>
+    <t>Minimize task assignments at the Sprint Planning Meeting</t>
+  </si>
+  <si>
+    <t>During a sprint, members who become available can pull tasks from the "To Do" list by moving them to "In Progress" and attaching his/her name</t>
+  </si>
+  <si>
+    <t>Inform your teammates know before you pull a task from "To Do" list</t>
+  </si>
+  <si>
+    <t>"To Verify" should be pulled by a different team member; This is a good time to perform code review and unit testing</t>
+  </si>
+  <si>
+    <t>A task in "Done" list should have its verifier's name appended</t>
   </si>
   <si>
     <t>Spotify API</t>
+  </si>
+  <si>
+    <t>"Archives"</t>
+  </si>
+  <si>
+    <t>At the end of a Sprint, finished tasks are moved to "Archives"; Unfinished tasks are moved to the next Sprint Planning Meeting</t>
   </si>
   <si>
     <t>As the host of the room I want to be able to connect use my 
 Spotify Premium Account</t>
   </si>
   <si>
-    <t>"Task Board"</t>
+    <t>"Burndown Chart"</t>
+  </si>
+  <si>
+    <t>At the end of a Sprint, update the "Burndown Chart"</t>
   </si>
   <si>
     <t>Close rooms</t>
@@ -487,45 +523,12 @@
  Spotify account and kick out all the other users.</t>
   </si>
   <si>
-    <t>"To Do" is initialized with tasks defined during the Sprint Planning Meeting (i.e., sprint backlog)</t>
-  </si>
-  <si>
-    <t>Tasks are expected to have similar sizes, each with a time cost of roughly 3-4 hours</t>
-  </si>
-  <si>
-    <t>Add "Details" and "Acceptance Criteria" to a task by "insert note" to a spreadsheet cell (right click the cell)</t>
-  </si>
-  <si>
-    <t>Minimize task assignments at the Sprint Planning Meeting</t>
-  </si>
-  <si>
-    <t>During a sprint, members who become available can pull tasks from the "To Do" list by moving them to "In Progress" and attaching his/her name</t>
-  </si>
-  <si>
-    <t>Inform your teammates know before you pull a task from "To Do" list</t>
-  </si>
-  <si>
-    <t>"To Verify" should be pulled by a different team member; This is a good time to perform code review and unit testing</t>
+    <t>if "Story Points (Remaining)" is above the "Ideal", it would be an indicator for slow progress</t>
   </si>
   <si>
     <t>Song status</t>
   </si>
   <si>
-    <t>A task in "Done" list should have its verifier's name appended</t>
-  </si>
-  <si>
-    <t>"Archives"</t>
-  </si>
-  <si>
-    <t>At the end of a Sprint, finished tasks are moved to "Archives"; Unfinished tasks are moved to the next Sprint Planning Meeting</t>
-  </si>
-  <si>
-    <t>"Burndown Chart"</t>
-  </si>
-  <si>
-    <t>At the end of a Sprint, update the "Burndown Chart"</t>
-  </si>
-  <si>
     <t>As a user I should be able to see current song playing, next songs, and the player.</t>
   </si>
   <si>
@@ -533,9 +536,6 @@
   </si>
   <si>
     <t>Repeat</t>
-  </si>
-  <si>
-    <t>if "Story Points (Remaining)" is above the "Ideal", it would be an indicator for slow progress</t>
   </si>
   <si>
     <t>As a user I should be able to repeat songs.</t>
@@ -592,6 +592,9 @@
     <t>Enoch</t>
   </si>
   <si>
+    <t>Jae</t>
+  </si>
+  <si>
     <t>Story Points (Total)</t>
   </si>
   <si>
@@ -605,9 +608,6 @@
   </si>
   <si>
     <t>Ideal</t>
-  </si>
-  <si>
-    <t>Jae</t>
   </si>
 </sst>
 </file>
@@ -628,10 +628,10 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
@@ -764,92 +764,98 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -857,15 +863,9 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -875,14 +875,14 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -926,153 +926,153 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="6">
         <v>43390.0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>12</v>
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>24</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21"/>
-      <c r="B8" s="23" t="s">
-        <v>42</v>
+      <c r="A8" s="20"/>
+      <c r="B8" s="21" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="21"/>
-      <c r="B9" s="24" t="s">
-        <v>43</v>
+      <c r="A9" s="20"/>
+      <c r="B9" s="23" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="25"/>
-      <c r="B10" s="27" t="s">
-        <v>47</v>
+      <c r="A10" s="24"/>
+      <c r="B10" s="26" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="25"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="23"/>
     </row>
     <row r="12">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="24"/>
+      <c r="B13" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="23" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="24"/>
+      <c r="B14" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="24"/>
+      <c r="B15" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="24"/>
+      <c r="B16" s="26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="25"/>
-      <c r="B13" s="23" t="s">
+    <row r="17">
+      <c r="A17" s="24"/>
+      <c r="B17" s="23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="25"/>
-      <c r="B14" s="24" t="s">
+    <row r="18">
+      <c r="A18" s="24"/>
+      <c r="B18" s="23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="25"/>
-      <c r="B15" s="23" t="s">
+    <row r="19">
+      <c r="A19" s="20"/>
+      <c r="B19" s="23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="25"/>
-      <c r="B16" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="25"/>
-      <c r="B17" s="24" t="s">
+    <row r="20">
+      <c r="A20" s="20"/>
+      <c r="B20" s="23"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="25"/>
-      <c r="B18" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="21"/>
-      <c r="B19" s="24" t="s">
+    <row r="22">
+      <c r="A22" s="27"/>
+      <c r="B22" s="23"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="20" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="21"/>
-      <c r="B20" s="24"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="21" t="s">
+      <c r="B23" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="29"/>
-      <c r="B22" s="24"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="24" t="s">
+    </row>
+    <row r="24">
+      <c r="A24" s="30"/>
+      <c r="B24" s="32" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="33"/>
-      <c r="B24" s="35" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1103,33 +1103,33 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11">
+      <c r="A2" s="9">
         <v>1.0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="11">
+        <v>29</v>
+      </c>
+      <c r="D2" s="9">
         <v>3.0</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="9">
         <v>1.0</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -1137,19 +1137,19 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>2.0</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="11">
+        <v>32</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="9">
         <v>3.0</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>5.0</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -1157,19 +1157,19 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>3.0</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="11">
+        <v>42</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="9">
         <v>3.0</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>9.0</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -1177,19 +1177,19 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="22">
+      <c r="A5" s="25">
         <v>4.0</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="11">
+        <v>45</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="9">
         <v>4.0</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>10.0</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -1197,19 +1197,19 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <v>5.0</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="26">
+        <v>47</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="28">
         <v>4.0</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>8.0</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -1217,19 +1217,19 @@
       </c>
     </row>
     <row r="7" ht="28.5" customHeight="1">
-      <c r="A7" s="22">
+      <c r="A7" s="25">
         <v>6.0</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="28">
+        <v>58</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="29">
         <v>8.0</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>2.0</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -1237,19 +1237,19 @@
       </c>
     </row>
     <row r="8" ht="27.0" customHeight="1">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <v>7.0</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="B8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="9">
         <v>3.0</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>3.0</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -1257,122 +1257,122 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="22">
+      <c r="A9" s="25">
         <v>8.0</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="11">
+      <c r="C9" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="9">
         <v>3.0</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="34">
         <v>6.0</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <v>9.0</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="34">
+        <v>2.0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>13.0</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="32">
+    </row>
+    <row r="11">
+      <c r="A11" s="34">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="34">
         <v>2.0</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="34">
+        <v>12.0</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="34">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="34">
+        <v>3.0</v>
+      </c>
+      <c r="E12" s="34">
+        <v>11.0</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="34">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="34">
+        <v>2.0</v>
+      </c>
+      <c r="E13" s="34">
+        <v>7.0</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="34">
         <v>13.0</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="32">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="32">
+      <c r="B14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="34">
         <v>2.0</v>
       </c>
-      <c r="E11" s="32">
-        <v>12.0</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="32">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="32">
-        <v>3.0</v>
-      </c>
-      <c r="E12" s="32">
-        <v>11.0</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="32">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="32">
-        <v>2.0</v>
-      </c>
-      <c r="E13" s="32">
-        <v>7.0</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="32">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="32">
-        <v>2.0</v>
-      </c>
-      <c r="E14" s="32">
+      <c r="E14" s="34">
         <v>4.0</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1409,35 +1409,35 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="C2" s="5"/>
       <c r="D2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" s="5"/>
       <c r="D4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1456,58 +1456,58 @@
       <c r="A8" s="7"/>
       <c r="C8" s="5"/>
       <c r="D8" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="12" t="s">
-        <v>21</v>
+      <c r="D10" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="12" t="s">
-        <v>26</v>
+      <c r="D11" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="14" t="s">
-        <v>29</v>
+      <c r="B14" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="12" t="s">
-        <v>30</v>
+      <c r="B15" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="20" t="s">
-        <v>32</v>
+      <c r="B16" s="19" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="20" t="s">
-        <v>46</v>
+      <c r="B17" s="19" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="20" t="s">
-        <v>48</v>
+      <c r="B18" s="19" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1534,44 +1534,44 @@
       <c r="A1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11">
+      <c r="A2" s="9">
         <v>1.0</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>1.0</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>1.0</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="32">
+      <c r="A5" s="34">
         <v>1.0</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1579,7 +1579,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="32">
+      <c r="A6" s="34">
         <v>1.0</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1587,45 +1587,45 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="32">
+      <c r="A8" s="34">
         <v>2.0</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>90</v>
+      <c r="B8" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="32">
+      <c r="A9" s="34">
         <v>2.0</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="32">
+      <c r="A10" s="34">
         <v>2.0</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>21</v>
+      <c r="C10" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="32">
+      <c r="A11" s="34">
         <v>2.0</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>26</v>
+      <c r="C11" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="32">
+      <c r="A12" s="34">
         <v>2.0</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1657,38 +1657,38 @@
         <v>81</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="39">
         <v>0.0</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="41">
         <v>42.0</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="41">
         <v>0.0</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="41">
         <v>0.0</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="41">
         <v>42.0</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="41">
         <v>42.0</v>
       </c>
     </row>
@@ -1696,19 +1696,19 @@
       <c r="A3" s="39">
         <v>1.0</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="41">
         <v>42.0</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="41">
         <v>19.0</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="41">
         <v>19.0</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="41">
         <v>23.0</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="41">
         <v>23.0</v>
       </c>
     </row>
@@ -1716,19 +1716,19 @@
       <c r="A4" s="39">
         <v>2.0</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="41">
         <v>42.0</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="41">
         <v>11.0</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="41">
         <v>30.0</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="41">
         <v>12.0</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="41">
         <v>12.0</v>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       <c r="A5" s="39">
         <v>3.0</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="41">
         <v>42.0</v>
       </c>
       <c r="C5" s="39"/>

--- a/docs/CS180 5J's JBox Design Document.xlsx
+++ b/docs/CS180 5J's JBox Design Document.xlsx
@@ -201,7 +201,7 @@
 3. Player controls of play, pause, skip is hidden from users and only Host can see.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B14">
+    <comment authorId="0" ref="D14">
       <text>
         <t xml:space="preserve">Accepting criteria:
 1. UI displays the Song status (playing paused etc) for all users
@@ -209,26 +209,20 @@
 3. Player controls of play, pause, skip is hidden from users and only Host can see.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B15">
+    <comment authorId="0" ref="D15">
       <text>
         <t xml:space="preserve">Acceptance Criteria:
 1) Host and uses should be able to see number of people currently in the room</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C15">
-      <text>
-        <t xml:space="preserve">Acceptance Criteria:
-1) Host and uses should be able to see number of people currently in the room</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B16">
+    <comment authorId="0" ref="D16">
       <text>
         <t xml:space="preserve">Acceptance criteria:
 1. Users are able to vote to have a song repeated
 2. Host is able to repeat songs with impunity</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B17">
+    <comment authorId="0" ref="D17">
       <text>
         <t xml:space="preserve">Accepting criteria
 1. Host has a button that allows or forbid duplicate songs in the queue
@@ -236,15 +230,7 @@
 3. When it is not vice versa</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C17">
-      <text>
-        <t xml:space="preserve">Accepting criteria
-1. Host has a button that allows or forbid duplicate songs in the queue
-2. When the button is pressed duplicates are no longer added to the queue
-3. When it is not vice versa</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B18">
+    <comment authorId="0" ref="D18">
       <text>
         <t xml:space="preserve">Accepting Criteria:
 1. Users are able to vote to remove any visible songs in the queue
@@ -330,20 +316,148 @@
 3. Player controls of play, pause, skip is hidden from users and only Host can see.</t>
       </text>
     </comment>
+    <comment authorId="0" ref="C14">
+      <text>
+        <t xml:space="preserve">Accepting criteria:
+1. UI displays the Song status (playing paused etc) for all users
+2. UI displays list of next songs in the queue for all users
+3. Player controls of play, pause, skip is hidden from users and only Host can see.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C15">
+      <text>
+        <t xml:space="preserve">Acceptance Criteria:
+1) Host and uses should be able to see number of people currently in the room</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C16">
+      <text>
+        <t xml:space="preserve">Acceptance criteria:
+1. Users are able to vote to have a song repeated
+2. Host is able to repeat songs with impunity</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C17">
+      <text>
+        <t xml:space="preserve">Accepting criteria
+1. Host has a button that allows or forbid duplicate songs in the queue
+2. When the button is pressed duplicates are no longer added to the queue
+3. When it is not vice versa</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C18">
+      <text>
+        <t xml:space="preserve">Accepting Criteria:
+1. Users are able to vote to remove any visible songs in the queue
+2. If a song gains the majority of the room the song is removed from the queue
+3. All users are able to see which songs are being voted on and the number of votes it has
+3. Same for skipping current song</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
+  <si>
+    <t>Last Update</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Jae Hyun Yim, Justin Yoo, Jang-Shing Lin, Jiawei Chen, Justin Li</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>jyim008@ucr.edu, jyoo030@ucr.edu, jchen313@ucr.edu, lli109@ucr.edu, jlin065@ucr.edu</t>
+  </si>
+  <si>
+    <t>To Do (Sprint Backlog)</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Last Update</t>
-  </si>
-  <si>
-    <t>To Do (Sprint Backlog)</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Spotify website version (Modified version)</t>
+  </si>
+  <si>
+    <t>Tabs</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Task 1: Create basic interface for the main page, with CreateRoom and JoinRoom button. (Enoch)</t>
+  </si>
+  <si>
+    <t>"Product Backlog"</t>
+  </si>
+  <si>
+    <t>Task 2: CreateRoom button creates a new room page and displays song status (Justin Li, Jiawei Chen)</t>
+  </si>
+  <si>
+    <t>Task 3: The new room page is then connected to spotify account API. (Jae)</t>
+  </si>
+  <si>
+    <t>Task 4: Generate unique code for room access (Justin Y)</t>
+  </si>
+  <si>
+    <t>Task 5: Users can access the room page with the unique code. (Justin Yoo)</t>
+  </si>
+  <si>
+    <t>Should be initialized with the user stories and their estimated efforts (i.e., story points)</t>
+  </si>
+  <si>
+    <t>Task 6: a host or user is able to be able to search for songs using the Spotify API. (Justin yoo)</t>
+  </si>
+  <si>
+    <t>Task 7: a host or user is able to add songs to the queue. (Jae)</t>
+  </si>
+  <si>
+    <t>Depending on the amount of story points, some stories may need to be split into smaller stories</t>
+  </si>
+  <si>
+    <t>Task 8: a host is be able add or remove songs from the queue, and play and skip. (Jae)</t>
+  </si>
+  <si>
+    <t>Add "Acceptance Criteria" to each user story by "insert note" to a spreadsheet cell (right click the cell)</t>
+  </si>
+  <si>
+    <t>Task 9: Reconcile React code with ejs/bootstrap (Enoch, Jiawei, Justin Li)</t>
+  </si>
+  <si>
+    <t>Task 10: a user should be able to see current song playing, next songs, and the player. (Backend)</t>
+  </si>
+  <si>
+    <t>"Acceptance Criteria" define what it means by "Done"</t>
+  </si>
+  <si>
+    <t>Task 11: a user should be able to see current song playing, next songs, and the player. (Frontend) (Jiawei, Enoch)</t>
+  </si>
+  <si>
+    <t>Task 12: a host or user should be able to see number of users currently in the room(Justin Li, Enoch)</t>
+  </si>
+  <si>
+    <t>"Task Board"</t>
+  </si>
+  <si>
+    <t>Task 13: As a user I should be able to repeat songs. (Justin Li, Jae)</t>
   </si>
   <si>
     <t>Story Name</t>
@@ -361,34 +475,52 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Jae Hyun Yim, Justin Yoo, Jang-Shing Lin, Jiawei Chen, Justin Li</t>
-  </si>
-  <si>
     <t>Host rooms</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>jyim008@ucr.edu, jyoo030@ucr.edu, jchen313@ucr.edu, lli109@ucr.edu, jlin065@ucr.edu</t>
+    <t>Task 14: As a host I should be able to decide if duplicates are added to the queue. (Justin Li, Jae)</t>
+  </si>
+  <si>
+    <t>Task 15: As a user I should be able to vote on whether to remove/skip the current and next songs. (Justin Yoo, Jiawei)</t>
   </si>
   <si>
     <t>As a user I want to create a room with a unique room ID that give to other users so they can join my room. I become the host.</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Spotify website version (Modified version)</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Tabs</t>
+    <t>"To Do" is initialized with tasks defined during the Sprint Planning Meeting (i.e., sprint backlog)</t>
+  </si>
+  <si>
+    <t>Tasks are expected to have similar sizes, each with a time cost of roughly 3-4 hours</t>
+  </si>
+  <si>
+    <t>Add "Details" and "Acceptance Criteria" to a task by "insert note" to a spreadsheet cell (right click the cell)</t>
+  </si>
+  <si>
+    <t>Minimize task assignments at the Sprint Planning Meeting</t>
+  </si>
+  <si>
+    <t>During a sprint, members who become available can pull tasks from the "To Do" list by moving them to "In Progress" and attaching his/her name</t>
+  </si>
+  <si>
+    <t>Inform your teammates know before you pull a task from "To Do" list</t>
+  </si>
+  <si>
+    <t>"To Verify" should be pulled by a different team member; This is a good time to perform code review and unit testing</t>
+  </si>
+  <si>
+    <t>A task in "Done" list should have its verifier's name appended</t>
+  </si>
+  <si>
+    <t>"Archives"</t>
+  </si>
+  <si>
+    <t>At the end of a Sprint, finished tasks are moved to "Archives"; Unfinished tasks are moved to the next Sprint Planning Meeting</t>
+  </si>
+  <si>
+    <t>"Burndown Chart"</t>
+  </si>
+  <si>
+    <t>At the end of a Sprint, update the "Burndown Chart"</t>
   </si>
   <si>
     <t>Join rooms</t>
@@ -397,7 +529,7 @@
     <t>I want to be able to use a unique room ID to join another users room.</t>
   </si>
   <si>
-    <t>Notes</t>
+    <t>if "Story Points (Remaining)" is above the "Ideal", it would be an indicator for slow progress</t>
   </si>
   <si>
     <t>Add to queue</t>
@@ -406,130 +538,25 @@
     <t>As a host or user I want to be able to add songs to the queue.</t>
   </si>
   <si>
-    <t>"Product Backlog"</t>
-  </si>
-  <si>
-    <t>Should be initialized with the user stories and their estimated efforts (i.e., story points)</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Depending on the amount of story points, some stories may need to be split into smaller stories</t>
-  </si>
-  <si>
-    <t>Add "Acceptance Criteria" to each user story by "insert note" to a spreadsheet cell (right click the cell)</t>
-  </si>
-  <si>
-    <t>Task 1: Create basic interface for the main page, with CreateRoom and JoinRoom button. (Enoch)</t>
-  </si>
-  <si>
-    <t>Task 2: CreateRoom button creates a new room page and displays song status (Justin Li, Jiawei Chen)</t>
-  </si>
-  <si>
-    <t>Task 3: The new room page is then connected to spotify account API. (Jae)</t>
-  </si>
-  <si>
-    <t>Task 4: Generate unique code for room access (Justin Y)</t>
-  </si>
-  <si>
-    <t>Task 5: Users can access the room page with the unique code. (Justin Yoo)</t>
-  </si>
-  <si>
     <t>Host controls</t>
   </si>
   <si>
     <t>As a host, I want to be able add or remove songs from the queue, and play and skip.</t>
   </si>
   <si>
-    <t>Task 6: a host or user is able to be able to search for songs using the Spotify API. (Justin yoo)</t>
-  </si>
-  <si>
     <t>Search Songs</t>
   </si>
   <si>
     <t>As a host or user I want to be able to be able to search for songs using the Spotify API.</t>
   </si>
   <si>
-    <t>Task 7: a host or user is able to add songs to the queue. (Jae)</t>
-  </si>
-  <si>
-    <t>Task 8: a host is be able add or remove songs from the queue, and play and skip. (Jae)</t>
-  </si>
-  <si>
-    <t>"Acceptance Criteria" define what it means by "Done"</t>
-  </si>
-  <si>
-    <t>Task 9: Reconcile React code with ejs/bootstrap (Enoch, Jiawei, Justin Li)</t>
-  </si>
-  <si>
-    <t>Task 10: a user should be able to see current song playing, next songs, and the player. (Backend)</t>
-  </si>
-  <si>
-    <t>"Task Board"</t>
-  </si>
-  <si>
-    <t>Task 11: a user should be able to see current song playing, next songs, and the player. (Frontend) (Jiawei, Enoch)</t>
-  </si>
-  <si>
-    <t>Task 12: a host or user should be able to see number of users currently in the room(Justin Li, Enoch)</t>
-  </si>
-  <si>
-    <t>Task 13: As a user I should be able to repeat songs. (Justin Li, Jae)</t>
-  </si>
-  <si>
-    <t>Task 14: As a host I should be able to decide if duplicates are added to the queue. (Justin Li, Jae)</t>
-  </si>
-  <si>
-    <t>"To Do" is initialized with tasks defined during the Sprint Planning Meeting (i.e., sprint backlog)</t>
-  </si>
-  <si>
-    <t>Task 15: As a user I should be able to vote on whether to remove/skip the current and next songs. (Justin Yoo, Jiawei)</t>
-  </si>
-  <si>
-    <t>Tasks are expected to have similar sizes, each with a time cost of roughly 3-4 hours</t>
-  </si>
-  <si>
-    <t>Add "Details" and "Acceptance Criteria" to a task by "insert note" to a spreadsheet cell (right click the cell)</t>
-  </si>
-  <si>
-    <t>Minimize task assignments at the Sprint Planning Meeting</t>
-  </si>
-  <si>
-    <t>During a sprint, members who become available can pull tasks from the "To Do" list by moving them to "In Progress" and attaching his/her name</t>
-  </si>
-  <si>
-    <t>Inform your teammates know before you pull a task from "To Do" list</t>
-  </si>
-  <si>
     <t>Spotify API</t>
-  </si>
-  <si>
-    <t>"To Verify" should be pulled by a different team member; This is a good time to perform code review and unit testing</t>
   </si>
   <si>
     <t>As the host of the room I want to be able to connect use my 
 Spotify Premium Account</t>
   </si>
   <si>
-    <t>A task in "Done" list should have its verifier's name appended</t>
-  </si>
-  <si>
-    <t>"Archives"</t>
-  </si>
-  <si>
-    <t>At the end of a Sprint, finished tasks are moved to "Archives"; Unfinished tasks are moved to the next Sprint Planning Meeting</t>
-  </si>
-  <si>
-    <t>"Burndown Chart"</t>
-  </si>
-  <si>
-    <t>At the end of a Sprint, update the "Burndown Chart"</t>
-  </si>
-  <si>
     <t>Close rooms</t>
   </si>
   <si>
@@ -537,18 +564,12 @@
  Spotify account and kick out all the other users.</t>
   </si>
   <si>
-    <t>if "Story Points (Remaining)" is above the "Ideal", it would be an indicator for slow progress</t>
-  </si>
-  <si>
     <t>Song status</t>
   </si>
   <si>
     <t>As a user I should be able to see current song playing, next songs, and the player.</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
     <t>Repeat</t>
   </si>
   <si>
@@ -559,9 +580,6 @@
   </si>
   <si>
     <t>As a host I should be able to decide if duplicates are added to the queue.</t>
-  </si>
-  <si>
-    <t>Testing/(frontend)</t>
   </si>
   <si>
     <t>Voting</t>
@@ -578,6 +596,18 @@
   </si>
   <si>
     <t>Users Leaving</t>
+  </si>
+  <si>
+    <t>Sprint ID</t>
+  </si>
+  <si>
+    <t>Scrum Master</t>
+  </si>
+  <si>
+    <t>Tasks Completed</t>
+  </si>
+  <si>
+    <t>Enoch</t>
   </si>
   <si>
     <r>
@@ -594,21 +624,12 @@
     </r>
   </si>
   <si>
+    <t>Jae</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Sprint ID</t>
-  </si>
-  <si>
-    <t>Scrum Master</t>
-  </si>
-  <si>
-    <t>Tasks Completed</t>
-  </si>
-  <si>
-    <t>Enoch</t>
-  </si>
-  <si>
     <t>Story Points (Total)</t>
   </si>
   <si>
@@ -622,9 +643,6 @@
   </si>
   <si>
     <t>Ideal</t>
-  </si>
-  <si>
-    <t>Jae</t>
   </si>
 </sst>
 </file>
@@ -634,7 +652,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -656,17 +674,25 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="10.0"/>
       <color rgb="FF24292E"/>
-      <name val="-apple-system"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF24292E"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF24292E"/>
+      <name val="-apple-system"/>
+    </font>
     <font>
       <b/>
       <color rgb="FFFF0000"/>
@@ -679,24 +705,13 @@
     <font>
       <color rgb="FF38761D"/>
     </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF24292E"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -712,8 +727,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -774,113 +789,120 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -889,7 +911,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -897,9 +919,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -907,6 +926,154 @@
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Burndown Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Burndown Chart'!$A$2:$A$5</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown Chart'!$E$2:$E$5</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="123460274"/>
+        <c:axId val="61156439"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="123460274"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Sprint Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="61156439"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="61156439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Story Points (Remaining)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="123460274"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -926,7 +1093,33 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4181475" cy="2581275"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -943,153 +1136,153 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>43390.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4">
-        <v>43390.0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="16" t="s">
+    <row r="8">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="16"/>
-      <c r="B8" s="18" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" s="16"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="17"/>
+      <c r="B10" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="23"/>
-      <c r="B10" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
     <row r="11">
-      <c r="A11" s="23"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="15"/>
     </row>
     <row r="12">
       <c r="A12" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="17"/>
+      <c r="B13" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="17"/>
+      <c r="B14" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="18" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="17"/>
+      <c r="B15" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="17"/>
+      <c r="B16" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="17"/>
+      <c r="B17" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="17"/>
+      <c r="B18" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="12"/>
+      <c r="B19" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="23"/>
-      <c r="B13" s="18" t="s">
+    <row r="20">
+      <c r="A20" s="12"/>
+      <c r="B20" s="15"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="23"/>
-      <c r="B14" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="23"/>
-      <c r="B15" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="23"/>
-      <c r="B16" s="25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="23"/>
-      <c r="B17" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="23"/>
-      <c r="B18" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="16"/>
-      <c r="B19" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="16"/>
-      <c r="B20" s="21"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="27"/>
-      <c r="B22" s="21"/>
+      <c r="B22" s="15"/>
     </row>
     <row r="23">
-      <c r="A23" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>63</v>
+      <c r="A23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="30"/>
-      <c r="B24" s="32" t="s">
-        <v>66</v>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1114,291 +1307,291 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
+      <c r="B1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="24">
         <v>1.0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="B2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="24">
         <v>3.0</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="24">
         <v>1.0</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>16</v>
+      <c r="F2" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="24">
         <v>2.0</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="B3" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="24">
         <v>3.0</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="24">
         <v>5.0</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>16</v>
+      <c r="F3" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5">
+      <c r="A4" s="24">
         <v>3.0</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="B4" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="24">
         <v>3.0</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="24">
         <v>9.0</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>16</v>
+      <c r="F4" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="22">
+      <c r="A5" s="32">
         <v>4.0</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="B5" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="24">
         <v>4.0</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="24">
         <v>10.0</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>16</v>
+      <c r="F5" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="24">
         <v>5.0</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="28">
+      <c r="B6" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="33">
         <v>4.0</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="24">
         <v>8.0</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>16</v>
+      <c r="F6" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" ht="28.5" customHeight="1">
-      <c r="A7" s="22">
+      <c r="A7" s="32">
         <v>6.0</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="29">
+      <c r="B7" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="34">
         <v>8.0</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="24">
         <v>2.0</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>16</v>
+      <c r="F7" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="27.0" customHeight="1">
-      <c r="A8" s="5">
+      <c r="A8" s="24">
         <v>7.0</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="5">
+      <c r="C8" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="24">
         <v>3.0</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="24">
         <v>3.0</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>16</v>
+      <c r="F8" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="22">
+      <c r="A9" s="32">
         <v>8.0</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="24">
         <v>3.0</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="37">
         <v>6.0</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="24">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="35" t="s">
+      <c r="C10" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="37">
+        <v>2.0</v>
+      </c>
+      <c r="E10" s="24">
+        <v>13.0</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="37">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="34">
+      <c r="C11" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="37">
         <v>2.0</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="37">
+        <v>12.0</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="37">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="37">
+        <v>3.0</v>
+      </c>
+      <c r="E12" s="37">
+        <v>11.0</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="37">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="37">
+        <v>2.0</v>
+      </c>
+      <c r="E13" s="37">
+        <v>7.0</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="37">
         <v>13.0</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="34">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="34">
+      <c r="B14" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="37">
         <v>2.0</v>
       </c>
-      <c r="E11" s="34">
-        <v>12.0</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="34">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="34">
-        <v>3.0</v>
-      </c>
-      <c r="E12" s="34">
-        <v>11.0</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="34">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="34">
-        <v>2.0</v>
-      </c>
-      <c r="E13" s="34">
-        <v>7.0</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="34">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="34">
-        <v>2.0</v>
-      </c>
-      <c r="E14" s="34">
+      <c r="E14" s="37">
         <v>4.0</v>
       </c>
-      <c r="F14" s="24" t="s">
-        <v>16</v>
+      <c r="F14" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="37">
+      <c r="B15" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="40">
         <f>SUM(D2:D14)</f>
         <v>42</v>
       </c>
@@ -1420,112 +1613,115 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="47.43"/>
-    <col customWidth="1" min="2" max="2" width="86.43"/>
-    <col customWidth="1" min="3" max="3" width="69.43"/>
+    <col customWidth="1" min="2" max="2" width="36.86"/>
+    <col customWidth="1" min="3" max="3" width="37.71"/>
     <col customWidth="1" min="4" max="4" width="87.14"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" s="9"/>
+      <c r="D2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="9"/>
+      <c r="D3" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="9"/>
+      <c r="D4" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="9"/>
+      <c r="D5" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="9"/>
+      <c r="D6" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="C2" s="20"/>
-      <c r="D2" s="12" t="s">
+    </row>
+    <row r="12">
+      <c r="D12" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14">
+      <c r="D14" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3">
-      <c r="C3" s="20"/>
-      <c r="D3" s="12" t="s">
+    <row r="15">
+      <c r="D15" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4">
-      <c r="C4" s="20"/>
-      <c r="D4" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="20"/>
-      <c r="D5" s="12" t="s">
+    <row r="16">
+      <c r="D16" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6">
-      <c r="C6" s="20"/>
-      <c r="D6" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="12"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="12"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="12" t="s">
+    <row r="17">
+      <c r="B17" s="25"/>
+      <c r="D17" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="12"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="24" t="s">
+    <row r="18">
+      <c r="D18" s="22" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="12"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="D12" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="19" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1549,102 +1745,145 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="37">
+        <v>2.0</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="C8" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="37">
+        <v>2.0</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="37">
+        <v>2.0</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="37">
+        <v>2.0</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="37">
+        <v>2.0</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="37">
+        <v>3.0</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="12" t="s">
+    <row r="15">
+      <c r="A15" s="37">
+        <v>3.0</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="12" t="s">
+    <row r="16">
+      <c r="A16" s="37">
+        <v>3.0</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="34">
-        <v>2.0</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="34">
-        <v>2.0</v>
-      </c>
-      <c r="C9" s="12" t="s">
+    <row r="17">
+      <c r="A17" s="37">
+        <v>3.0</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="34">
-        <v>2.0</v>
-      </c>
-      <c r="C10" s="24" t="s">
+    <row r="18">
+      <c r="A18" s="37">
+        <v>3.0</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="34">
-        <v>2.0</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="34">
-        <v>2.0</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1671,136 +1910,144 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="F1" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="38" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="39">
+      <c r="A2" s="42">
         <v>0.0</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="43">
         <v>42.0</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="43">
         <v>0.0</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="43">
         <v>0.0</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="43">
         <v>42.0</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="43">
         <v>42.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="39">
+      <c r="A3" s="42">
         <v>1.0</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="43">
         <v>42.0</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="43">
         <v>19.0</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="43">
         <v>19.0</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="43">
         <v>23.0</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="43">
         <v>23.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="39">
+      <c r="A4" s="42">
         <v>2.0</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="43">
         <v>42.0</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="43">
         <v>11.0</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="43">
         <v>30.0</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="43">
         <v>12.0</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="43">
         <v>12.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="39">
+      <c r="A5" s="42">
         <v>3.0</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="43">
         <v>42.0</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
+      <c r="C5" s="43">
+        <v>12.0</v>
+      </c>
+      <c r="D5" s="43">
+        <v>42.0</v>
+      </c>
+      <c r="E5" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="43">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
     </row>
     <row r="8">
-      <c r="A8" s="39"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="39"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="42"/>
     </row>
     <row r="9">
-      <c r="A9" s="39"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="39"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="42"/>
     </row>
     <row r="10">
-      <c r="A10" s="39"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="39"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="42"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
